--- a/Base/Teams/Jaguars/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Jaguars/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="C3">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="D3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/Base/Teams/Jaguars/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Jaguars/2021 Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="C3">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="C3">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/Base/Teams/Jaguars/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Jaguars/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="C2">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="D2">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="C2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>1</v>

--- a/Base/Teams/Jaguars/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Jaguars/2021 Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="C3">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>3</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="C3">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/Base/Teams/Jaguars/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Jaguars/2021 Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="C3">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="D3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3">
         <v>1</v>

--- a/Base/Teams/Jaguars/2021 Target Depth Data.xlsx
+++ b/Base/Teams/Jaguars/2021 Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="C2">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C2">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
